--- a/regionseng/10/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/10/hotels and restaurants/hotels and restaurants.xlsx
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A23:A24"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,7 +535,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="22.5" customHeight="1">
+    <row r="1" spans="1:18" ht="22.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -550,7 +550,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -565,7 +565,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -612,8 +612,14 @@
       <c r="P3" s="19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="19">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -662,8 +668,14 @@
       <c r="P4" s="8">
         <v>860.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="8">
+        <v>1115.5</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1592.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -712,8 +724,14 @@
       <c r="P5" s="8">
         <v>808.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="8">
+        <v>1115.5</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1592.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -762,8 +780,14 @@
       <c r="P6" s="9">
         <v>17663</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="9">
+        <v>18775</v>
+      </c>
+      <c r="R6" s="9">
+        <v>22120.799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -812,8 +836,14 @@
       <c r="P7" s="9">
         <v>17638</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="9">
+        <v>18640</v>
+      </c>
+      <c r="R7" s="9">
+        <v>21873.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -862,8 +892,14 @@
       <c r="P8" s="10">
         <v>961.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="10">
+        <v>1001.6</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1323.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -912,8 +948,14 @@
       <c r="P9" s="10">
         <v>520.79999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="10">
+        <v>703</v>
+      </c>
+      <c r="R9" s="10">
+        <v>863.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -962,8 +1004,14 @@
       <c r="P10" s="12">
         <v>206.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="12">
+        <v>230.5</v>
+      </c>
+      <c r="R10" s="12">
+        <v>357.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
@@ -1012,8 +1060,14 @@
       <c r="P11" s="12">
         <v>287.60000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="12">
+        <v>412.5</v>
+      </c>
+      <c r="R11" s="12">
+        <v>729.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
@@ -1062,8 +1116,14 @@
       <c r="P12" s="10">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="10">
+        <v>55.2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1172,14 @@
       <c r="P13" s="10">
         <v>560.70000000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="10">
+        <v>708.8</v>
+      </c>
+      <c r="R13" s="10">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1162,8 +1228,14 @@
       <c r="P14" s="12">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="12">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1179,7 +1251,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1">
+    <row r="16" spans="1:18" s="1" customFormat="1">
       <c r="A16" s="17" t="s">
         <v>1</v>
       </c>

--- a/regionseng/10/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/10/hotels and restaurants/hotels and restaurants.xlsx
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="G21" sqref="G21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,7 +535,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.5" customHeight="1">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -550,7 +550,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -565,7 +565,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="18">
         <v>2006</v>
@@ -618,8 +618,11 @@
       <c r="R3" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -674,8 +677,11 @@
       <c r="R4" s="8">
         <v>1592.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="8">
+        <v>1926.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -730,8 +736,11 @@
       <c r="R5" s="8">
         <v>1592.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="8">
+        <v>1929.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="15" t="s">
         <v>7</v>
       </c>
@@ -786,8 +795,11 @@
       <c r="R6" s="9">
         <v>22120.799999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="9">
+        <v>24982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="15" t="s">
         <v>8</v>
       </c>
@@ -842,8 +854,11 @@
       <c r="R7" s="9">
         <v>21873.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="9">
+        <v>24520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -898,8 +913,11 @@
       <c r="R8" s="10">
         <v>1323.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="10">
+        <v>1481.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
@@ -954,8 +972,11 @@
       <c r="R9" s="10">
         <v>863.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="10">
+        <v>1068.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1010,8 +1031,11 @@
       <c r="R10" s="12">
         <v>357.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="12">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
@@ -1066,8 +1090,11 @@
       <c r="R11" s="12">
         <v>729.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="12">
+        <v>860.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="15" t="s">
         <v>13</v>
       </c>
@@ -1122,8 +1149,11 @@
       <c r="R12" s="10">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="10">
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1208,11 @@
       <c r="R13" s="10">
         <v>869</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="10">
+        <v>1057.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -1234,8 +1267,11 @@
       <c r="R14" s="12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="7"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1251,7 +1287,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1">
+    <row r="16" spans="1:19" s="1" customFormat="1">
       <c r="A16" s="17" t="s">
         <v>1</v>
       </c>
